--- a/data/stuff_ongoing.xlsx
+++ b/data/stuff_ongoing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>공학용 계산기</t>
+          <t>담요</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C타입 충전기</t>
+          <t>돗자리</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -472,17 +472,177 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>테스트 품목</t>
+          <t>우산</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>가위</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>공학용 계산기</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>스테이플러</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>실험복</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>충전기 (8핀)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>충전기 (C타입)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>테이프</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>가글</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>마스크</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>물티슈</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>밴드</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>생리대</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>소화제</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>인공눈물</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>진통제</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>test stuff</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
